--- a/results/results_amino_acids.xlsx
+++ b/results/results_amino_acids.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="iCC390" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="iCC431" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="iCC464" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="iCC644" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="iCC389" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="iCC431" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="iCC470" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="iCC651" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -57,18 +57,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -461,7 +461,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1499974129726111</v>
+        <v>0.1334525431033358</v>
       </c>
     </row>
     <row r="4">
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1499974129726111</v>
+        <v>0.1334525431033358</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1497923303676384</v>
+        <v>0.1332700813219138</v>
       </c>
     </row>
     <row r="12">
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1499974129726097</v>
+        <v>0.1334525431033358</v>
       </c>
     </row>
     <row r="13">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1494471263732482</v>
+        <v>0.1329629536853232</v>
       </c>
     </row>
     <row r="14">
@@ -601,7 +601,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1499974129726109</v>
+        <v>0.1334525431033368</v>
       </c>
     </row>
     <row r="18">
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.1499974129726097</v>
+        <v>0.1334525431033355</v>
       </c>
     </row>
     <row r="20">
@@ -631,7 +631,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.1460338376451569</v>
+        <v>0.1299261542360375</v>
       </c>
     </row>
     <row r="21">
@@ -641,11 +641,11 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1478222498444871</v>
+        <v>0.1315173027191182</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -677,7 +677,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9466355276173218</v>
+        <v>0.9466355276173223</v>
       </c>
     </row>
     <row r="3">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9599355516604979</v>
+        <v>0.959935551660497</v>
       </c>
     </row>
     <row r="4">
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9599355516605043</v>
+        <v>0.959935551660497</v>
       </c>
     </row>
     <row r="5">
@@ -707,7 +707,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.948716507578941</v>
+        <v>0.94871650757894</v>
       </c>
     </row>
     <row r="6">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9526878130927009</v>
+        <v>0.9526878130927015</v>
       </c>
     </row>
     <row r="7">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9536983332068069</v>
+        <v>0.9536983332068012</v>
       </c>
     </row>
     <row r="8">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9585044486269961</v>
+        <v>0.9585044486269945</v>
       </c>
     </row>
     <row r="9">
@@ -757,7 +757,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9500172167264338</v>
+        <v>0.9500172167264285</v>
       </c>
     </row>
     <row r="11">
@@ -767,7 +767,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9494665968198107</v>
+        <v>0.9494665968198088</v>
       </c>
     </row>
     <row r="12">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9599355516604928</v>
+        <v>0.9599355516604959</v>
       </c>
     </row>
     <row r="13">
@@ -797,7 +797,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9301361339115219</v>
+        <v>0.9301361339115282</v>
       </c>
     </row>
     <row r="15">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9586036691791208</v>
+        <v>0.9586036691791211</v>
       </c>
     </row>
     <row r="16">
@@ -817,7 +817,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.944414841319983</v>
+        <v>0.9444148413199831</v>
       </c>
     </row>
     <row r="17">
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9599355516605005</v>
+        <v>0.959935551660502</v>
       </c>
     </row>
     <row r="19">
@@ -847,7 +847,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9426647253939976</v>
+        <v>0.9426647253939953</v>
       </c>
     </row>
     <row r="20">
@@ -857,7 +857,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9484216674828303</v>
+        <v>0.948421667482833</v>
       </c>
     </row>
     <row r="21">
@@ -867,11 +867,11 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9468936649558064</v>
+        <v>0.9468936649558083</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -1013,7 +1013,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.7960639170575395</v>
+        <v>0.7960639170575391</v>
       </c>
     </row>
     <row r="14">
@@ -1083,7 +1083,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.7677394430990007</v>
+        <v>0.7677394430990008</v>
       </c>
     </row>
     <row r="21">
@@ -1093,11 +1093,11 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.7911654076940954</v>
+        <v>0.7911654076940946</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -1139,7 +1139,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3060892292274502</v>
+        <v>0.3152237567343069</v>
       </c>
     </row>
     <row r="4">
@@ -1169,7 +1169,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3016202906824079</v>
+        <v>0.3031150326334918</v>
       </c>
     </row>
     <row r="7">
@@ -1199,7 +1199,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3069960348003755</v>
+        <v>0.3166988434888303</v>
       </c>
     </row>
     <row r="10">
@@ -1219,7 +1219,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.307412781258397</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="12">
@@ -1229,7 +1229,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3095662209049149</v>
       </c>
     </row>
     <row r="13">
@@ -1239,7 +1239,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3061535798681757</v>
+        <v>0.3157073685763436</v>
       </c>
     </row>
     <row r="14">
@@ -1249,7 +1249,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3035831411185684</v>
+        <v>0.3127616688854793</v>
       </c>
     </row>
     <row r="15">
@@ -1259,7 +1259,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.3029341568228109</v>
+        <v>0.3041745317278176</v>
       </c>
     </row>
     <row r="16">
@@ -1279,7 +1279,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.3073357469623384</v>
+        <v>0.3130409577793544</v>
       </c>
     </row>
     <row r="18">
@@ -1289,7 +1289,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.3069406666737884</v>
+        <v>0.3167956982730841</v>
       </c>
     </row>
     <row r="19">
@@ -1299,7 +1299,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.307412781258394</v>
+        <v>0.3023367435367467</v>
       </c>
     </row>
     <row r="20">
@@ -1309,7 +1309,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3077682761953017</v>
       </c>
     </row>
     <row r="21">
@@ -1319,10 +1319,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.3053095816248073</v>
+        <v>0.2951072661685817</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>